--- a/cap_line_original.xlsx
+++ b/cap_line_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurgu\OneDrive - Technion\semester4\הצגת מידע חזותי וקוגניציה\InfoVizProejct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E2AC3D3-B834-4027-AA2B-4E20C1B5076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775C985-ABFF-4C98-AA36-D157F5E7625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56652A40-4B5B-43A6-8135-E7631808A0D7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{56652A40-4B5B-43A6-8135-E7631808A0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cap_line_original.xlsx
+++ b/cap_line_original.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurgu\OneDrive - Technion\semester4\הצגת מידע חזותי וקוגניציה\InfoVizProejct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/gur_keinan_campus_technion_ac_il/Documents/semester4/הצגת מידע חזותי וקוגניציה/InfoVizProejct/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775C985-ABFF-4C98-AA36-D157F5E7625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{56652A40-4B5B-43A6-8135-E7631808A0D7}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{56652A40-4B5B-43A6-8135-E7631808A0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cap_line_original.xlsx
+++ b/cap_line_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/gur_keinan_campus_technion_ac_il/Documents/semester4/הצגת מידע חזותי וקוגניציה/InfoVizProejct/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\semester4\cognition\פרויקט קוגניציה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1B90E2E2-F321-4083-B720-7BA8B1117145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE892D7-7392-4B9C-A5C4-583BC0BF444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8E620F8-2440-44F9-9665-23BABD0DD972}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F8E620F8-2440-44F9-9665-23BABD0DD972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,195 +36,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
-  <si>
-    <t>ירושלים</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="53">
   <si>
     <t>בינעירוני</t>
   </si>
   <si>
-    <t>ישיר</t>
-  </si>
-  <si>
-    <t>סדיר</t>
-  </si>
-  <si>
-    <t>אוטובוס</t>
-  </si>
-  <si>
     <t>מעל שנה וחצי</t>
   </si>
   <si>
-    <t>RouteID</t>
-  </si>
-  <si>
-    <t>RouteName</t>
-  </si>
-  <si>
-    <t>RouteDirection</t>
-  </si>
-  <si>
-    <t>AgencyName</t>
-  </si>
-  <si>
-    <t>ClusterName</t>
+    <t>00:00-03:59</t>
+  </si>
+  <si>
+    <t>04:00-05:59</t>
+  </si>
+  <si>
+    <t>06:00-08:59</t>
+  </si>
+  <si>
+    <t>09:00-11:59</t>
+  </si>
+  <si>
+    <t>12:00-14:59</t>
+  </si>
+  <si>
+    <t>15:00-18:59</t>
+  </si>
+  <si>
+    <t>19:00-23:59</t>
+  </si>
+  <si>
+    <t>Agency Name</t>
+  </si>
+  <si>
+    <t>AVG Passengers Per Week</t>
+  </si>
+  <si>
+    <t>Bus Size</t>
+  </si>
+  <si>
+    <t>Bus Type</t>
+  </si>
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Destination City Name</t>
+  </si>
+  <si>
+    <t>Max Ridership</t>
   </si>
   <si>
     <t>Metropolin</t>
   </si>
   <si>
-    <t>OriginCityName</t>
-  </si>
-  <si>
-    <t>DestinationCityName</t>
-  </si>
-  <si>
-    <t>RouteType</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>RouteParticular</t>
-  </si>
-  <si>
-    <t>BusType</t>
-  </si>
-  <si>
-    <t>BusSize</t>
-  </si>
-  <si>
-    <t>NumOfAlternatives</t>
-  </si>
-  <si>
-    <t>RouteLength</t>
-  </si>
-  <si>
-    <t>WeeklyKM</t>
-  </si>
-  <si>
-    <t>AVGPassengersPerWeek</t>
-  </si>
-  <si>
-    <t>StationsInRoute</t>
-  </si>
-  <si>
-    <t>OperationSince</t>
-  </si>
-  <si>
-    <t>UniqueStations</t>
-  </si>
-  <si>
-    <t>UniqueLocations</t>
+    <t>Operation Since</t>
+  </si>
+  <si>
+    <t>Origin City Name</t>
+  </si>
+  <si>
+    <t>Route ID</t>
+  </si>
+  <si>
+    <t>Route Particular</t>
+  </si>
+  <si>
+    <t>Route Type</t>
+  </si>
+  <si>
+    <t>Service Type</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>Unique Locations</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AVGCommutersPerRide(Weekly)</t>
+  </si>
+  <si>
+    <t>AVGPaysPerRide</t>
+  </si>
+  <si>
+    <t>Daily Passengers</t>
   </si>
   <si>
     <t>DailyRides(Tuesday)</t>
   </si>
   <si>
-    <t>WeekyRides</t>
-  </si>
-  <si>
-    <t>DailyPassengers</t>
-  </si>
-  <si>
-    <t>WeeklyPassengers</t>
-  </si>
-  <si>
-    <t>AVGCommutersPerRide(Weekly)</t>
-  </si>
-  <si>
-    <t>WorkDay - 00:00-03:59</t>
-  </si>
-  <si>
-    <t>WorkDay - 04:00-05:59</t>
-  </si>
-  <si>
-    <t>WorkDay - 06:00-08:59</t>
-  </si>
-  <si>
-    <t>WorkDay - 09:00-11:59</t>
-  </si>
-  <si>
-    <t>WorkDay - 12:00-14:59</t>
-  </si>
-  <si>
-    <t>WorkDay - 15:00-18:59</t>
-  </si>
-  <si>
-    <t>WorkDay - 19:00-23:59</t>
-  </si>
-  <si>
-    <t>Friday - 00:00-03:59</t>
-  </si>
-  <si>
-    <t>Friday - 04:00-05:59</t>
-  </si>
-  <si>
-    <t>Friday - 06:00-08:59</t>
-  </si>
-  <si>
-    <t>Friday - 09:00-11:59</t>
-  </si>
-  <si>
-    <t>Friday - 12:00-14:59</t>
-  </si>
-  <si>
-    <t>Friday - 15:00-18:59</t>
-  </si>
-  <si>
-    <t>Friday - 19:00-23:59</t>
-  </si>
-  <si>
-    <t>Saturday - 00:00-03:59</t>
-  </si>
-  <si>
-    <t>Saturday - 04:00-05:59</t>
-  </si>
-  <si>
-    <t>Saturday - 06:00-08:59</t>
-  </si>
-  <si>
-    <t>Saturday - 09:00-11:59</t>
-  </si>
-  <si>
-    <t>Saturday - 12:00-14:59</t>
-  </si>
-  <si>
-    <t>Saturday - 15:00-18:59</t>
-  </si>
-  <si>
-    <t>Saturday - 19:00-23:59</t>
-  </si>
-  <si>
-    <t>MaxRidership</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>Num Of Alternatives</t>
   </si>
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t>VarianceOfDensity</t>
-  </si>
-  <si>
-    <t>BusCapacity</t>
-  </si>
-  <si>
-    <t>אגד</t>
-  </si>
-  <si>
-    <t>ירושלים-תל אביב</t>
-  </si>
-  <si>
-    <t>בין מחוזי</t>
-  </si>
-  <si>
-    <t>תל אביב יפו</t>
-  </si>
-  <si>
-    <t>שישי - 04:00-05:59</t>
+    <t>Route Direction</t>
+  </si>
+  <si>
+    <t>Route Length</t>
+  </si>
+  <si>
+    <t>Route Name</t>
+  </si>
+  <si>
+    <t>Stations In Route</t>
+  </si>
+  <si>
+    <t>Unique Stations</t>
+  </si>
+  <si>
+    <t>Weekly KM</t>
+  </si>
+  <si>
+    <t>Weekly Passengers</t>
+  </si>
+  <si>
+    <t>Weeky Rides</t>
+  </si>
+  <si>
+    <t>נסיעות ותיירות</t>
+  </si>
+  <si>
+    <t>מיניבוס</t>
+  </si>
+  <si>
+    <t>קווי נצרת - נסיעות ותיירות</t>
+  </si>
+  <si>
+    <t>מגאר</t>
+  </si>
+  <si>
+    <t>ימי חול - 06:00-08:59</t>
+  </si>
+  <si>
+    <t>גולן גליל ועמקים</t>
+  </si>
+  <si>
+    <t>תלמידים</t>
+  </si>
+  <si>
+    <t>אזורי</t>
+  </si>
+  <si>
+    <t>מאסף</t>
+  </si>
+  <si>
+    <t>שבת</t>
+  </si>
+  <si>
+    <t>יום חול</t>
+  </si>
+  <si>
+    <t>שישי</t>
   </si>
 </sst>
 </file>
@@ -576,298 +546,2111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9516C6-18F1-473D-AA47-E9C470DA4353}">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>97440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>27.6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>38075</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2">
+        <v>2022</v>
+      </c>
+      <c r="T2">
+        <v>60</v>
+      </c>
+      <c r="V2">
+        <v>56.1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB2">
+        <v>75</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>10.88</v>
+      </c>
+      <c r="AF2">
+        <v>299.8</v>
+      </c>
+      <c r="AG2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>97441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>27.6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>38075</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3">
+        <v>2022</v>
+      </c>
+      <c r="T3">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>56.1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>75</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>10.88</v>
+      </c>
+      <c r="AF3">
+        <v>299.8</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>97442</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>27.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <v>38075</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4">
+        <v>2022</v>
+      </c>
+      <c r="T4">
+        <v>60</v>
+      </c>
+      <c r="V4">
+        <v>56.1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>75</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>10.88</v>
+      </c>
+      <c r="AF4">
+        <v>299.8</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>97443</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>27.6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>38075</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5">
+        <v>2022</v>
+      </c>
+      <c r="T5">
+        <v>60</v>
+      </c>
+      <c r="V5">
+        <v>56.1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB5">
+        <v>75</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>10.88</v>
+      </c>
+      <c r="AF5">
+        <v>299.8</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>97444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>27.6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6">
+        <v>38075</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6">
+        <v>2022</v>
+      </c>
+      <c r="T6">
+        <v>60</v>
+      </c>
+      <c r="V6">
+        <v>56.1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>75</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>10.88</v>
+      </c>
+      <c r="AF6">
+        <v>299.8</v>
+      </c>
+      <c r="AG6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>97445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>27.6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>38075</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7">
+        <v>2022</v>
+      </c>
+      <c r="T7">
+        <v>60</v>
+      </c>
+      <c r="V7">
+        <v>56.1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>75</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>10.88</v>
+      </c>
+      <c r="AF7">
+        <v>299.8</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>97446</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>27.6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8">
+        <v>38075</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8">
+        <v>2022</v>
+      </c>
+      <c r="T8">
+        <v>60</v>
+      </c>
+      <c r="V8">
+        <v>56.1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>75</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>10.88</v>
+      </c>
+      <c r="AF8">
+        <v>299.8</v>
+      </c>
+      <c r="AG8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>97447</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="C9">
+        <v>27.6</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9">
+        <v>38075</v>
+      </c>
+      <c r="M9" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="N9" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="O9" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="S9">
+        <v>2022</v>
+      </c>
+      <c r="T9">
+        <v>60</v>
+      </c>
+      <c r="V9">
+        <v>56.1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB9">
+        <v>75</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>10.88</v>
+      </c>
+      <c r="AF9">
+        <v>299.8</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>27.6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10">
+        <v>38075</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>2022</v>
+      </c>
+      <c r="T10">
+        <v>60</v>
+      </c>
+      <c r="V10">
+        <v>56.1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>75</v>
+      </c>
+      <c r="AC10">
+        <v>5</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>10.88</v>
+      </c>
+      <c r="AF10">
+        <v>299.8</v>
+      </c>
+      <c r="AG10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>97449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>27.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11">
+        <v>38075</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>2022</v>
+      </c>
+      <c r="T11">
+        <v>60</v>
+      </c>
+      <c r="U11">
+        <v>19.3</v>
+      </c>
+      <c r="V11">
+        <v>56.1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>75</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>10.88</v>
+      </c>
+      <c r="AF11">
+        <v>299.8</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>97450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>27.6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12">
+        <v>38075</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <v>2022</v>
+      </c>
+      <c r="T12">
+        <v>60</v>
+      </c>
+      <c r="V12">
+        <v>56.1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB12">
+        <v>75</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>10.88</v>
+      </c>
+      <c r="AF12">
+        <v>299.8</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>97451</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>27.6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13">
+        <v>38075</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13">
+        <v>2022</v>
+      </c>
+      <c r="T13">
+        <v>60</v>
+      </c>
+      <c r="V13">
+        <v>56.1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB13">
+        <v>75</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AE13">
+        <v>10.88</v>
+      </c>
+      <c r="AF13">
+        <v>299.8</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>97452</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>27.6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14">
+        <v>38075</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>2022</v>
+      </c>
+      <c r="T14">
+        <v>60</v>
+      </c>
+      <c r="V14">
+        <v>56.1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB14">
+        <v>75</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>10.88</v>
+      </c>
+      <c r="AF14">
+        <v>299.8</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>97453</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>27.6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15">
+        <v>38075</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15">
+        <v>2022</v>
+      </c>
+      <c r="T15">
+        <v>60</v>
+      </c>
+      <c r="V15">
+        <v>56.1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB15">
+        <v>75</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <v>10.88</v>
+      </c>
+      <c r="AF15">
+        <v>299.8</v>
+      </c>
+      <c r="AG15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>97454</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>27.6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16">
+        <v>38075</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>57</v>
+      <c r="S16">
+        <v>2022</v>
+      </c>
+      <c r="T16">
+        <v>60</v>
+      </c>
+      <c r="V16">
+        <v>56.1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB16">
+        <v>75</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>10.88</v>
+      </c>
+      <c r="AF16">
+        <v>299.8</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>505</v>
-      </c>
-      <c r="B2">
-        <v>10480</v>
-      </c>
-      <c r="C2">
-        <v>480</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>97455</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>27.6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17">
+        <v>38075</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17">
+        <v>2022</v>
+      </c>
+      <c r="T17">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="V17">
+        <v>56.1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB17">
+        <v>75</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>10.88</v>
+      </c>
+      <c r="AF17">
+        <v>299.8</v>
+      </c>
+      <c r="AG17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>97456</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>27.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18">
+        <v>38075</v>
+      </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18">
+        <v>2022</v>
+      </c>
+      <c r="T18">
+        <v>60</v>
+      </c>
+      <c r="U18">
+        <v>36.4</v>
+      </c>
+      <c r="V18">
+        <v>56.1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB18">
+        <v>75</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="AE18">
+        <v>10.88</v>
+      </c>
+      <c r="AF18">
+        <v>299.8</v>
+      </c>
+      <c r="AG18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>97457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>27.6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19">
+        <v>38075</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19">
+        <v>2022</v>
+      </c>
+      <c r="T19">
+        <v>60</v>
+      </c>
+      <c r="V19">
+        <v>56.1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB19">
+        <v>75</v>
+      </c>
+      <c r="AC19">
+        <v>5</v>
+      </c>
+      <c r="AD19">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>62.3</v>
-      </c>
-      <c r="R2">
-        <v>0.3</v>
-      </c>
-      <c r="S2">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2">
+      <c r="AE19">
+        <v>10.88</v>
+      </c>
+      <c r="AF19">
+        <v>299.8</v>
+      </c>
+      <c r="AG19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>97458</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>27.6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="X2">
-        <v>280</v>
-      </c>
-      <c r="Y2">
-        <v>588.79999999999995</v>
-      </c>
-      <c r="Z2">
-        <v>4545.7</v>
-      </c>
-      <c r="AA2">
-        <v>16.2</v>
-      </c>
-      <c r="AC2">
-        <v>28</v>
-      </c>
-      <c r="AD2">
-        <v>12.4</v>
-      </c>
-      <c r="AE2">
-        <v>15.2</v>
-      </c>
-      <c r="AF2">
-        <v>20.2</v>
-      </c>
-      <c r="AG2">
-        <v>10.8</v>
-      </c>
-      <c r="AH2">
-        <v>10.3</v>
-      </c>
-      <c r="AJ2">
-        <v>188.4</v>
-      </c>
-      <c r="AK2">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AL2">
-        <v>26.6</v>
-      </c>
-      <c r="AM2">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="AN2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AU2">
-        <v>41.9</v>
-      </c>
-      <c r="AV2">
-        <v>19.3</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX2">
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>38075</v>
+      </c>
+      <c r="M20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20">
         <v>2022</v>
       </c>
-      <c r="AY2">
+      <c r="T20">
+        <v>60</v>
+      </c>
+      <c r="V20">
+        <v>56.1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <v>4</v>
       </c>
-      <c r="AZ2">
-        <v>2115.9686390532502</v>
-      </c>
-      <c r="BA2">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB20">
+        <v>75</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>10.88</v>
+      </c>
+      <c r="AF20">
+        <v>299.8</v>
+      </c>
+      <c r="AG20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>97459</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>27.6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21">
+        <v>38075</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>51</v>
+      </c>
+      <c r="S21">
+        <v>2022</v>
+      </c>
+      <c r="T21">
         <v>60</v>
+      </c>
+      <c r="V21">
+        <v>56.1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB21">
+        <v>75</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+      <c r="AE21">
+        <v>10.88</v>
+      </c>
+      <c r="AF21">
+        <v>299.8</v>
+      </c>
+      <c r="AG21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>97460</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>27.6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22">
+        <v>38075</v>
+      </c>
+      <c r="M22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22">
+        <v>2022</v>
+      </c>
+      <c r="T22">
+        <v>60</v>
+      </c>
+      <c r="V22">
+        <v>56.1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB22">
+        <v>75</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>10.88</v>
+      </c>
+      <c r="AF22">
+        <v>299.8</v>
+      </c>
+      <c r="AG22">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -885,15 +2668,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085994232FDE7724DA4A951F4CF705750" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41ddfbc74fbb5ffca7509191a116214a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="845a81d2-3d86-4e39-8e5f-759704810672" xmlns:ns4="727b2a69-991a-42a0-8be8-87fc635d7829" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80e85724029c7b5b1a0cb6ab627cda47" ns3:_="" ns4:_="">
     <xsd:import namespace="845a81d2-3d86-4e39-8e5f-759704810672"/>
@@ -1114,6 +2888,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31BC5804-1773-4644-94C8-84CD8CBB6E63}">
   <ds:schemaRefs>
@@ -1132,14 +2915,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889CDD2A-F4CB-4F3B-BAF8-DAFECE181942}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0CB719-9653-427D-A995-E4B9FC583B12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1156,4 +2931,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889CDD2A-F4CB-4F3B-BAF8-DAFECE181942}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>